--- a/anal/180926.xlsx
+++ b/anal/180926.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="938" yWindow="0" windowWidth="19793" windowHeight="13890" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sr-ev plot" sheetId="1" r:id="rId1"/>
     <sheet name="eu model parameters" sheetId="2" r:id="rId2"/>
     <sheet name="GLM" sheetId="3" r:id="rId3"/>
+    <sheet name="GLM block" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>slopes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,22 +123,46 @@
     <t>gamble ranova</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>0.5s</t>
+  </si>
+  <si>
+    <t>1.0s</t>
+  </si>
+  <si>
+    <t>2.0s</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -197,9 +222,579 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2886482939632541E-2"/>
+          <c:y val="5.4977398658501028E-2"/>
+          <c:w val="0.89655796150481193"/>
+          <c:h val="0.83762321376494608"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'eu model parameters'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('eu model parameters'!$B$10,'eu model parameters'!$G$10,'eu model parameters'!$L$10)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.11864900093471328</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.46789866961709914</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.127490404192516</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('eu model parameters'!$B$10,'eu model parameters'!$G$10,'eu model parameters'!$L$10)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.11864900093471328</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.46789866961709914</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.127490404192516</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>('eu model parameters'!$A$1,'eu model parameters'!$F$1,'eu model parameters'!$K$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>alpha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>temperature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('eu model parameters'!$B$9,'eu model parameters'!$G$9,'eu model parameters'!$L$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.93721651516940363</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.503473456551158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58226134387058248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-316D-4964-A090-0EB0C96A0BA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'eu model parameters'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('eu model parameters'!$C$10,'eu model parameters'!$H$10,'eu model parameters'!$M$10)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.11312379219930263</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.23928193405126161</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.12457217876480557</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('eu model parameters'!$C$10,'eu model parameters'!$H$10,'eu model parameters'!$M$10)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.11312379219930263</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.23928193405126161</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.12457217876480557</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>('eu model parameters'!$C$9,'eu model parameters'!$H$9,'eu model parameters'!$M$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0293720446257046</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3173295945582115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5208434217115151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-316D-4964-A090-0EB0C96A0BA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'eu model parameters'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('eu model parameters'!$D$10,'eu model parameters'!$I$10,'eu model parameters'!$N$10)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.14408640356519586</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.65174662165627217</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.15390493814708875</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('eu model parameters'!$D$10,'eu model parameters'!$I$10,'eu model parameters'!$N$10)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.14408640356519586</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.65174662165627217</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.15390493814708875</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>('eu model parameters'!$D$9,'eu model parameters'!$I$9,'eu model parameters'!$N$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0843151743975914</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7255724019389973</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67458947784192969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-316D-4964-A090-0EB0C96A0BA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1615512960"/>
+        <c:axId val="1615511712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1615512960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1615511712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1615511712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1615512960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69268394575678038"/>
+          <c:y val="9.2592592592592587E-2"/>
+          <c:w val="0.24796522309711286"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2983507300953987E-2"/>
+          <c:y val="5.9620596205962058E-2"/>
+          <c:w val="0.90309045003224964"/>
+          <c:h val="0.91060964940358069"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -687,7 +1282,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="709785568"/>
@@ -746,10 +1341,1029 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="709789728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73788189612089827"/>
+          <c:y val="5.21673815163348E-2"/>
+          <c:w val="0.19416523116119577"/>
+          <c:h val="9.1464054798028299E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'GLM block'!$B$58:$F$58</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>4.319771000110454E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.1523795149646539E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.871281616796126E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.0753744311597879E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.2806333033139701E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'GLM block'!$B$58:$F$58</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>4.319771000110454E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.1523795149646539E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.871281616796126E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.0753744311597879E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.2806333033139701E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GLM block'!$B$33:$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>constant</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sure reward +</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sure reward -</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gamble +</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gamble -</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GLM block'!$B$51:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-6.3242680188470471E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25475007279073453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28770209110589101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19830480320668914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16097159832252078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDC1-4597-A4F3-AADFECCB07C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'GLM block'!$B$59:$F$59</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>5.2820497574985553E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.2091293162069025E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0706398475308443E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.1544240730586579E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.7759457063440005E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'GLM block'!$B$59:$F$59</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>5.2820497574985553E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.2091293162069025E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0706398475308443E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.1544240730586579E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.7759457063440005E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GLM block'!$B$33:$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>constant</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sure reward +</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sure reward -</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gamble +</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gamble -</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GLM block'!$B$52:$F$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2.3593725802926398E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.261653893911308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31824966627277151</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1509316304020232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16225267609538355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DDC1-4597-A4F3-AADFECCB07C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'GLM block'!$B$60:$F$60</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.1816146076128556E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.1415361411036947E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.7169606230472253E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.6696615555498149E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.0282239811308601E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'GLM block'!$B$60:$F$60</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.1816146076128556E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.1415361411036947E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.7169606230472253E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.6696615555498149E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.0282239811308601E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GLM block'!$B$33:$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>constant</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sure reward +</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sure reward -</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gamble +</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gamble -</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GLM block'!$B$53:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.9096928366325097E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31515217850680655</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3163933110718456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11167191077167715</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16379835261099515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DDC1-4597-A4F3-AADFECCB07C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'GLM block'!$B$61:$F$61</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.2886338693120597E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.2606301339953915E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.9824346292662073E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.9953543955973312E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.1683356723655272E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'GLM block'!$B$61:$F$61</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.2886338693120597E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.2606301339953915E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.9824346292662073E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.9953543955973312E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.1683356723655272E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GLM block'!$B$33:$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>constant</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sure reward +</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sure reward -</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gamble +</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gamble -</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GLM block'!$B$54:$F$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.299064829128267E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32885765577910658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30025200527288598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1364356324352291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14012878848093943</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DDC1-4597-A4F3-AADFECCB07C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'GLM block'!$B$62:$F$62</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.4815423011239487E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.2214409468901447E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.3727511040289149E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.9198828980414803E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.0150689930291663E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'GLM block'!$B$62:$F$62</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.4815423011239487E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.2214409468901447E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.3727511040289149E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.9198828980414803E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.0150689930291663E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GLM block'!$B$33:$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>constant</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sure reward +</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sure reward -</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gamble +</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gamble -</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GLM block'!$B$55:$F$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.1352395950006279E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30536054512458788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31372763128145803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12836623360906582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17279040078945282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DDC1-4597-A4F3-AADFECCB07C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'GLM block'!$B$63:$F$63</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>6.2816497764703161E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0946863961591204E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.348151648125971E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.1154889646776956E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.5000943409631455E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'GLM block'!$B$63:$F$63</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>6.2816497764703161E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0946863961591204E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.348151648125971E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.1154889646776956E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.5000943409631455E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GLM block'!$B$33:$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>constant</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sure reward +</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sure reward -</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gamble +</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gamble -</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GLM block'!$B$56:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.4542260887349616E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21376742854502373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37118927266565693</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10562505857325076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18507776775795698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DDC1-4597-A4F3-AADFECCB07C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1844053520"/>
+        <c:axId val="1844045200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1844053520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1844045200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1844045200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1844053520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -789,7 +2403,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -819,7 +2433,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -870,6 +2484,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1373,20 +3067,1096 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1677,14 +4447,14 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="B2">
         <v>0.40738818256714399</v>
       </c>
@@ -1713,7 +4483,7 @@
         <v>0.56731624710599204</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="B3">
         <v>0.375596564929848</v>
       </c>
@@ -1742,7 +4512,7 @@
         <v>0.628883706314048</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="B4">
         <v>0.38707774838314701</v>
       </c>
@@ -1780,16 +4550,341 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2">
+        <v>1.2164541363213699</v>
+      </c>
+      <c r="C2">
+        <v>1.07457720193044</v>
+      </c>
+      <c r="D2">
+        <v>1.44993972063051</v>
+      </c>
+      <c r="G2">
+        <v>4.11204800513379</v>
+      </c>
+      <c r="H2">
+        <v>2.4694520055933502</v>
+      </c>
+      <c r="I2">
+        <v>5.5403149439461297</v>
+      </c>
+      <c r="L2">
+        <v>0.17589423454516601</v>
+      </c>
+      <c r="M2">
+        <v>0.203078307568449</v>
+      </c>
+      <c r="N2">
+        <v>0.119423816219292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3">
+        <v>0.30183426060059398</v>
+      </c>
+      <c r="C3">
+        <v>0.59900217453160898</v>
+      </c>
+      <c r="D3">
+        <v>0.50816678229604795</v>
+      </c>
+      <c r="G3">
+        <v>0.70696140924949702</v>
+      </c>
+      <c r="H3">
+        <v>0.72726228517698499</v>
+      </c>
+      <c r="I3">
+        <v>0.66253114265540003</v>
+      </c>
+      <c r="L3">
+        <v>1.1163562586870299</v>
+      </c>
+      <c r="M3">
+        <v>0.72259492058095898</v>
+      </c>
+      <c r="N3">
+        <v>0.83847097537411097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4">
+        <v>0.84656626953349001</v>
+      </c>
+      <c r="C4">
+        <v>0.91972113146094503</v>
+      </c>
+      <c r="D4">
+        <v>0.874612834339072</v>
+      </c>
+      <c r="G4">
+        <v>1.1895037601862</v>
+      </c>
+      <c r="H4">
+        <v>1.5726267402207601</v>
+      </c>
+      <c r="I4">
+        <v>1.35177097233828</v>
+      </c>
+      <c r="L4">
+        <v>0.51625093201635697</v>
+      </c>
+      <c r="M4">
+        <v>0.44380984228308001</v>
+      </c>
+      <c r="N4">
+        <v>0.77868056021055199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5">
+        <v>0.87414217976364195</v>
+      </c>
+      <c r="C5">
+        <v>0.81733062224564901</v>
+      </c>
+      <c r="D5">
+        <v>0.91491275982206</v>
+      </c>
+      <c r="G5">
+        <v>0.85072755079412699</v>
+      </c>
+      <c r="H5">
+        <v>0.92141241277843</v>
+      </c>
+      <c r="I5">
+        <v>1.2435328311531599</v>
+      </c>
+      <c r="L5">
+        <v>0.79200612601672904</v>
+      </c>
+      <c r="M5">
+        <v>0.89546836757510195</v>
+      </c>
+      <c r="N5">
+        <v>1.2673892288145601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6">
+        <v>1.1640462516663901</v>
+      </c>
+      <c r="C6">
+        <v>0.98575567576087897</v>
+      </c>
+      <c r="D6">
+        <v>1.02142671759279</v>
+      </c>
+      <c r="G6">
+        <v>2.0352261578342299</v>
+      </c>
+      <c r="H6">
+        <v>1.5157879824238201</v>
+      </c>
+      <c r="I6">
+        <v>1.6617367716582501</v>
+      </c>
+      <c r="L6">
+        <v>0.185283258246139</v>
+      </c>
+      <c r="M6">
+        <v>0.93936138591755303</v>
+      </c>
+      <c r="N6">
+        <v>0.62417649343471204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7">
+        <v>1.0245555931727901</v>
+      </c>
+      <c r="C7">
+        <v>1.4743206521250301</v>
+      </c>
+      <c r="D7">
+        <v>1.65224777077649</v>
+      </c>
+      <c r="G7">
+        <v>0.80236307476633995</v>
+      </c>
+      <c r="H7">
+        <v>0.63607892165013602</v>
+      </c>
+      <c r="I7">
+        <v>0.58168457984138999</v>
+      </c>
+      <c r="L7">
+        <v>0.54897462999995605</v>
+      </c>
+      <c r="M7">
+        <v>0.28634892657745398</v>
+      </c>
+      <c r="N7">
+        <v>0.18475878362999701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8">
+        <v>1.13291691512755</v>
+      </c>
+      <c r="C8">
+        <v>1.3348968543253801</v>
+      </c>
+      <c r="D8">
+        <v>1.16889963532617</v>
+      </c>
+      <c r="G8">
+        <v>0.827484237893924</v>
+      </c>
+      <c r="H8">
+        <v>1.3786868140640001</v>
+      </c>
+      <c r="I8">
+        <v>1.0374355719803701</v>
+      </c>
+      <c r="L8">
+        <v>0.74106396758269999</v>
+      </c>
+      <c r="M8">
+        <v>0.15524220147800899</v>
+      </c>
+      <c r="N8">
+        <v>0.90922648721028398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(B2:B8)</f>
+        <v>0.93721651516940363</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:N9" si="0">AVERAGE(C2:C8)</f>
+        <v>1.0293720446257046</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.0843151743975914</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1.503473456551158</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1.3173295945582115</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>1.7255724019389973</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.58226134387058248</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0.5208434217115151</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.67458947784192969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <f>_xlfn.STDEV.S(B2:B8)/SQRT(7)</f>
+        <v>0.11864900093471328</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:N10" si="1">_xlfn.STDEV.S(C2:C8)/SQRT(7)</f>
+        <v>0.11312379219930263</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.14408640356519586</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.46789866961709914</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0.23928193405126161</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.65174662165627217</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0.127490404192516</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0.12457217876480557</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>0.15390493814708875</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1797,13 +4892,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -1819,13 +4914,67 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>3.8896000000000002</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>3.8896000000000002</v>
+      </c>
+      <c r="L2">
+        <v>418.3</v>
+      </c>
+      <c r="M2" s="1">
+        <v>8.8838000000000002E-7</v>
+      </c>
+      <c r="N2" s="1">
+        <v>8.8838000000000002E-7</v>
+      </c>
+      <c r="O2" s="1">
+        <v>8.8838000000000002E-7</v>
+      </c>
+      <c r="P2" s="1">
+        <v>8.8838000000000002E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="B3">
         <v>0.18604511786222599</v>
       </c>
@@ -1842,34 +4991,19 @@
         <v>0.25716520086768502</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>5.5791E-2</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>9.2984999999999995E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="B4">
         <v>2.2386332780703198E-2</v>
       </c>
@@ -1886,34 +5020,34 @@
         <v>-6.3816634842327399E-2</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4">
-        <v>3.8896000000000002</v>
+        <v>2.9550000000000001</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>3.8896000000000002</v>
+        <v>2.9550000000000001</v>
       </c>
       <c r="L4">
-        <v>418.3</v>
+        <v>394.73</v>
       </c>
       <c r="M4" s="1">
-        <v>8.8838000000000002E-7</v>
+        <v>1.0549000000000001E-6</v>
       </c>
       <c r="N4" s="1">
-        <v>8.8838000000000002E-7</v>
+        <v>1.0549000000000001E-6</v>
       </c>
       <c r="O4" s="1">
-        <v>8.8838000000000002E-7</v>
+        <v>1.0549000000000001E-6</v>
       </c>
       <c r="P4" s="1">
-        <v>8.8838000000000002E-7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1.0549000000000001E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="B5">
         <v>1.71227735368184E-2</v>
       </c>
@@ -1930,19 +5064,19 @@
         <v>0.14347995057066901</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5">
-        <v>5.5791E-2</v>
+        <v>4.4916999999999999E-2</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
       <c r="K5">
-        <v>9.2984999999999995E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>7.4862000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="B6">
         <v>-8.3194616600135704E-2</v>
       </c>
@@ -1959,34 +5093,34 @@
         <v>0.145400697497864</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I6">
-        <v>2.9550000000000001</v>
+        <v>2.1651E-2</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>2.9550000000000001</v>
+        <v>2.1651E-2</v>
       </c>
       <c r="L6">
-        <v>394.73</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1.0549000000000001E-6</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1.0549000000000001E-6</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1.0549000000000001E-6</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1.0549000000000001E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1.5846</v>
+      </c>
+      <c r="M6">
+        <v>0.25485999999999998</v>
+      </c>
+      <c r="N6">
+        <v>0.25485999999999998</v>
+      </c>
+      <c r="O6">
+        <v>0.25485999999999998</v>
+      </c>
+      <c r="P6">
+        <v>0.25485999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="B7">
         <v>8.9776737082861796E-2</v>
       </c>
@@ -2003,19 +5137,19 @@
         <v>0.22483703540730801</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I7">
-        <v>4.4916999999999999E-2</v>
+        <v>8.1979999999999997E-2</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7">
-        <v>7.4862000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1.3663E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="B8">
         <v>4.0063931190866597E-2</v>
       </c>
@@ -2032,34 +5166,34 @@
         <v>0.135294294127871</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I8">
-        <v>2.1651E-2</v>
+        <v>3.7679999999999998E-2</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <v>2.1651E-2</v>
+        <v>3.7679999999999998E-2</v>
       </c>
       <c r="L8">
-        <v>1.5846</v>
+        <v>3.0158</v>
       </c>
       <c r="M8">
-        <v>0.25485999999999998</v>
+        <v>0.13313</v>
       </c>
       <c r="N8">
-        <v>0.25485999999999998</v>
+        <v>0.13313</v>
       </c>
       <c r="O8">
-        <v>0.25485999999999998</v>
+        <v>0.13313</v>
       </c>
       <c r="P8">
-        <v>0.25485999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0.13313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="B9">
         <v>8.4032823278656493E-3</v>
       </c>
@@ -2076,51 +5210,24 @@
         <v>0.18990025839847399</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I9">
-        <v>8.1979999999999997E-2</v>
+        <v>7.4965000000000004E-2</v>
       </c>
       <c r="J9">
         <v>6</v>
       </c>
       <c r="K9">
-        <v>1.3663E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1.2494E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10">
-        <v>3.7679999999999998E-2</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>3.7679999999999998E-2</v>
-      </c>
-      <c r="L10">
-        <v>3.0158</v>
-      </c>
-      <c r="M10">
-        <v>0.13313</v>
-      </c>
-      <c r="N10">
-        <v>0.13313</v>
-      </c>
-      <c r="O10">
-        <v>0.13313</v>
-      </c>
-      <c r="P10">
-        <v>0.13313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:16">
       <c r="B11">
         <v>0.17590530934040099</v>
       </c>
@@ -2137,19 +5244,34 @@
         <v>0.20252484560366099</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11">
-        <v>7.4965000000000004E-2</v>
-      </c>
-      <c r="J11">
-        <v>6</v>
-      </c>
-      <c r="K11">
-        <v>1.2494E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="B12">
         <v>-0.22050956227846499</v>
       </c>
@@ -2165,8 +5287,35 @@
       <c r="F12">
         <v>9.6692473763284603E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12">
+        <v>0.97880999999999996</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0.97880999999999996</v>
+      </c>
+      <c r="L12">
+        <v>78.314999999999998</v>
+      </c>
+      <c r="M12">
+        <v>1.1574999999999999E-4</v>
+      </c>
+      <c r="N12">
+        <v>1.1574999999999999E-4</v>
+      </c>
+      <c r="O12">
+        <v>1.1574999999999999E-4</v>
+      </c>
+      <c r="P12">
+        <v>1.1574999999999999E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="B13">
         <v>0.104150004744166</v>
       </c>
@@ -2183,34 +5332,19 @@
         <v>0.16708458859127401</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>7.4990000000000001E-2</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>1.2498E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="B14">
         <v>-4.4646749066042997E-2</v>
       </c>
@@ -2227,34 +5361,34 @@
         <v>0.144142419243175</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I14">
-        <v>0.97880999999999996</v>
+        <v>0.81071000000000004</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0.97880999999999996</v>
+        <v>0.81071000000000004</v>
       </c>
       <c r="L14">
-        <v>78.314999999999998</v>
-      </c>
-      <c r="M14">
-        <v>1.1574999999999999E-4</v>
-      </c>
-      <c r="N14">
-        <v>1.1574999999999999E-4</v>
-      </c>
-      <c r="O14">
-        <v>1.1574999999999999E-4</v>
-      </c>
-      <c r="P14">
-        <v>1.1574999999999999E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>111.66</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4.2253999999999999E-5</v>
+      </c>
+      <c r="N14" s="1">
+        <v>4.2253999999999999E-5</v>
+      </c>
+      <c r="O14" s="1">
+        <v>4.2253999999999999E-5</v>
+      </c>
+      <c r="P14" s="1">
+        <v>4.2253999999999999E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="B15">
         <v>7.1624900710688499E-2</v>
       </c>
@@ -2271,19 +5405,19 @@
         <v>0.14682555792071</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I15">
-        <v>7.4990000000000001E-2</v>
+        <v>4.3561999999999997E-2</v>
       </c>
       <c r="J15">
         <v>6</v>
       </c>
       <c r="K15">
-        <v>1.2498E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>7.2602999999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="B16">
         <v>-5.6527868790888003E-2</v>
       </c>
@@ -2300,34 +5434,34 @@
         <v>0.18764518770567801</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I16">
-        <v>0.81071000000000004</v>
+        <v>7.9235999999999994E-3</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <v>0.81071000000000004</v>
+        <v>7.9235999999999994E-3</v>
       </c>
       <c r="L16">
-        <v>111.66</v>
-      </c>
-      <c r="M16" s="1">
-        <v>4.2253999999999999E-5</v>
-      </c>
-      <c r="N16" s="1">
-        <v>4.2253999999999999E-5</v>
-      </c>
-      <c r="O16" s="1">
-        <v>4.2253999999999999E-5</v>
-      </c>
-      <c r="P16" s="1">
-        <v>4.2253999999999999E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0.65805999999999998</v>
+      </c>
+      <c r="M16">
+        <v>0.44822000000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.44822000000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.44822000000000001</v>
+      </c>
+      <c r="P16">
+        <v>0.44822000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="B17">
         <v>3.5469021958214997E-2</v>
       </c>
@@ -2344,51 +5478,51 @@
         <v>0.23160849653200499</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I17">
-        <v>4.3561999999999997E-2</v>
+        <v>7.2245000000000004E-2</v>
       </c>
       <c r="J17">
         <v>6</v>
       </c>
       <c r="K17">
-        <v>7.2602999999999999E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1.2041E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I18">
-        <v>7.9235999999999994E-3</v>
+        <v>8.8836999999999996E-3</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <v>7.9235999999999994E-3</v>
+        <v>8.8836999999999996E-3</v>
       </c>
       <c r="L18">
-        <v>0.65805999999999998</v>
+        <v>0.86846999999999996</v>
       </c>
       <c r="M18">
-        <v>0.44822000000000001</v>
+        <v>0.38734000000000002</v>
       </c>
       <c r="N18">
-        <v>0.44822000000000001</v>
+        <v>0.38734000000000002</v>
       </c>
       <c r="O18">
-        <v>0.44822000000000001</v>
+        <v>0.38734000000000002</v>
       </c>
       <c r="P18">
-        <v>0.44822000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0.38734000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="B19">
         <v>0.20662779207825499</v>
       </c>
@@ -2405,19 +5539,19 @@
         <v>0.274935654148658</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I19">
-        <v>7.2245000000000004E-2</v>
+        <v>6.1374999999999999E-2</v>
       </c>
       <c r="J19">
         <v>6</v>
       </c>
       <c r="K19">
-        <v>1.2041E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1.0229E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="B20">
         <v>-1.4914989229898E-2</v>
       </c>
@@ -2433,35 +5567,8 @@
       <c r="F20">
         <v>9.3385290620010594E-2</v>
       </c>
-      <c r="H20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20">
-        <v>8.8836999999999996E-3</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>8.8836999999999996E-3</v>
-      </c>
-      <c r="L20">
-        <v>0.86846999999999996</v>
-      </c>
-      <c r="M20">
-        <v>0.38734000000000002</v>
-      </c>
-      <c r="N20">
-        <v>0.38734000000000002</v>
-      </c>
-      <c r="O20">
-        <v>0.38734000000000002</v>
-      </c>
-      <c r="P20">
-        <v>0.38734000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:16">
       <c r="B21">
         <v>-0.115916048173347</v>
       </c>
@@ -2477,20 +5584,8 @@
       <c r="F21">
         <v>0.156724431582348</v>
       </c>
-      <c r="H21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21">
-        <v>6.1374999999999999E-2</v>
-      </c>
-      <c r="J21">
-        <v>6</v>
-      </c>
-      <c r="K21">
-        <v>1.0229E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:16">
       <c r="B22">
         <v>-1.76007498037416E-2</v>
       </c>
@@ -2507,7 +5602,7 @@
         <v>0.191902560032469</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="B23">
         <v>9.0142426730780004E-2</v>
       </c>
@@ -2524,7 +5619,7 @@
         <v>0.19211403365506299</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="B24">
         <v>-7.0973621744660695E-2</v>
       </c>
@@ -2541,7 +5636,7 @@
         <v>0.176211166639719</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="B25">
         <v>-7.3623837191458498E-3</v>
       </c>
@@ -2558,12 +5653,12 @@
         <v>0.20023120496897101</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2588,7 +5683,7 @@
         <v>0.14746582886107767</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -2613,7 +5708,7 @@
         <v>0.16807479562282682</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -2638,12 +5733,12 @@
         <v>0.18364347737817693</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -2668,7 +5763,7 @@
         <v>3.9227515352553761E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -2693,7 +5788,7 @@
         <v>1.6709736588002729E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -2745,6 +5840,1024 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2">
+        <v>4.8431684741103903E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.33282553171552198</v>
+      </c>
+      <c r="D2">
+        <v>0.25389343895618899</v>
+      </c>
+      <c r="E2">
+        <v>0.163908739555508</v>
+      </c>
+      <c r="F2">
+        <v>0.20094060503167699</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3">
+        <v>-0.24247355521286101</v>
+      </c>
+      <c r="C3">
+        <v>0.14409746696866299</v>
+      </c>
+      <c r="D3">
+        <v>0.44912031862646401</v>
+      </c>
+      <c r="E3">
+        <v>5.0947559118892899E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.113361100073119</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4">
+        <v>3.2993049748780402E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.27291653924193199</v>
+      </c>
+      <c r="D4">
+        <v>0.33811838252450399</v>
+      </c>
+      <c r="E4">
+        <v>0.17898798099471799</v>
+      </c>
+      <c r="F4">
+        <v>0.17698404749006599</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5">
+        <v>-0.137938003621908</v>
+      </c>
+      <c r="C5">
+        <v>0.360289195979698</v>
+      </c>
+      <c r="D5">
+        <v>0.17251771959642501</v>
+      </c>
+      <c r="E5">
+        <v>0.23106693042131801</v>
+      </c>
+      <c r="F5">
+        <v>9.8188150380650596E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6">
+        <v>-3.6187691640092799E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.151805276278944</v>
+      </c>
+      <c r="D6">
+        <v>0.35585627163693001</v>
+      </c>
+      <c r="E6">
+        <v>0.24394166957879301</v>
+      </c>
+      <c r="F6">
+        <v>0.21220909086524001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7">
+        <v>-0.14870015119436</v>
+      </c>
+      <c r="C7">
+        <v>0.28577535561268202</v>
+      </c>
+      <c r="D7">
+        <v>0.16427493067485799</v>
+      </c>
+      <c r="E7">
+        <v>0.31336525642887703</v>
+      </c>
+      <c r="F7">
+        <v>8.7884306089222E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8">
+        <v>4.1175905860044201E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.23554114373770099</v>
+      </c>
+      <c r="D8">
+        <v>0.280133575725867</v>
+      </c>
+      <c r="E8">
+        <v>0.20591548634871701</v>
+      </c>
+      <c r="F8">
+        <v>0.23723388832767101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10">
+        <v>0.164607373844538</v>
+      </c>
+      <c r="C10">
+        <v>0.207603847258897</v>
+      </c>
+      <c r="D10">
+        <v>0.32690516844640599</v>
+      </c>
+      <c r="E10">
+        <v>3.8946625798347602E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.26193698465181098</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11">
+        <v>-4.5624856200722702E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.38002446814573099</v>
+      </c>
+      <c r="D11">
+        <v>0.27686989448391502</v>
+      </c>
+      <c r="E11">
+        <v>0.25632890683898601</v>
+      </c>
+      <c r="F11">
+        <v>8.2214244911296405E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12">
+        <v>-6.9159692779772103E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.24774934262646101</v>
+      </c>
+      <c r="D12">
+        <v>0.41511790421551997</v>
+      </c>
+      <c r="E12">
+        <v>0.13882523590731499</v>
+      </c>
+      <c r="F12">
+        <v>0.12914782447093201</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13">
+        <v>-0.24674114923832699</v>
+      </c>
+      <c r="C13">
+        <v>0.133491697872165</v>
+      </c>
+      <c r="D13">
+        <v>0.495508742601179</v>
+      </c>
+      <c r="E13">
+        <v>5.6680468010782803E-2</v>
+      </c>
+      <c r="F13">
+        <v>6.7577942277546404E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14">
+        <v>9.2236358734313795E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.23441778978417199</v>
+      </c>
+      <c r="D14">
+        <v>0.306903875866259</v>
+      </c>
+      <c r="E14">
+        <v>0.140847622524708</v>
+      </c>
+      <c r="F14">
+        <v>0.22559435309054701</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15">
+        <v>-0.136307179286869</v>
+      </c>
+      <c r="C15">
+        <v>0.27261548139611602</v>
+      </c>
+      <c r="D15">
+        <v>0.18888366044001101</v>
+      </c>
+      <c r="E15">
+        <v>0.23930497161224501</v>
+      </c>
+      <c r="F15">
+        <v>0.16288870726475899</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16">
+        <v>3.4770693725703801E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.35567463029561402</v>
+      </c>
+      <c r="D16">
+        <v>0.21755841785611099</v>
+      </c>
+      <c r="E16">
+        <v>0.18558758212177801</v>
+      </c>
+      <c r="F16">
+        <v>0.20640867600079299</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18">
+        <v>0.16408201813509801</v>
+      </c>
+      <c r="C18">
+        <v>6.3750177107449901E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.46558123542552698</v>
+      </c>
+      <c r="E18">
+        <v>-2.3274969440138901E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.283311599891786</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19">
+        <v>4.0735713994296298E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.52855835269245</v>
+      </c>
+      <c r="D19">
+        <v>0.37037528740016801</v>
+      </c>
+      <c r="E19">
+        <v>-4.0089777437088102E-3</v>
+      </c>
+      <c r="F19">
+        <v>-5.6321668169377198E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20">
+        <v>0.109107730126785</v>
+      </c>
+      <c r="C20">
+        <v>0.28978141642206501</v>
+      </c>
+      <c r="D20">
+        <v>0.25896951483514002</v>
+      </c>
+      <c r="E20">
+        <v>0.122003685193356</v>
+      </c>
+      <c r="F20">
+        <v>0.22013765342265401</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21">
+        <v>2.3416714585470198E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.33949800953630499</v>
+      </c>
+      <c r="D21">
+        <v>0.38699107493527601</v>
+      </c>
+      <c r="E21">
+        <v>9.1034308751676798E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.15905989219127101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22">
+        <v>3.6023486707936203E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.30920514525404302</v>
+      </c>
+      <c r="D22">
+        <v>0.32063580154888</v>
+      </c>
+      <c r="E22">
+        <v>0.180174034691096</v>
+      </c>
+      <c r="F22">
+        <v>0.153961531798044</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23">
+        <v>0.10512169278459201</v>
+      </c>
+      <c r="C23">
+        <v>0.33705321405963901</v>
+      </c>
+      <c r="D23">
+        <v>0.19545711511550801</v>
+      </c>
+      <c r="E23">
+        <v>0.183127946638626</v>
+      </c>
+      <c r="F23">
+        <v>0.179240031401634</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24">
+        <v>5.1911422300979903E-3</v>
+      </c>
+      <c r="C24">
+        <v>0.33821893447569401</v>
+      </c>
+      <c r="D24">
+        <v>0.21674314824242</v>
+      </c>
+      <c r="E24">
+        <v>0.232647347310833</v>
+      </c>
+      <c r="F24">
+        <v>0.20719942774095401</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26">
+        <v>0.21408747392918201</v>
+      </c>
+      <c r="C26">
+        <v>0.112691012662612</v>
+      </c>
+      <c r="D26">
+        <v>0.32681649336472202</v>
+      </c>
+      <c r="E26">
+        <v>7.6390959066260603E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.27001406097722302</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27">
+        <v>4.8974651093804597E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.56210101965966297</v>
+      </c>
+      <c r="D27">
+        <v>0.209617764132009</v>
+      </c>
+      <c r="E27">
+        <v>0.12269043932382</v>
+      </c>
+      <c r="F27">
+        <v>-5.6616125790703797E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28">
+        <v>8.2850477280575194E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.25606750570341102</v>
+      </c>
+      <c r="D28">
+        <v>0.38596653856588697</v>
+      </c>
+      <c r="E28">
+        <v>0.13731745197984499</v>
+      </c>
+      <c r="F28">
+        <v>0.137798026470281</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29">
+        <v>-4.4688016068254897E-3</v>
+      </c>
+      <c r="C29">
+        <v>0.32594366910665701</v>
+      </c>
+      <c r="D29">
+        <v>0.35316863731974901</v>
+      </c>
+      <c r="E29">
+        <v>9.7384424325626204E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.21903446764114301</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30">
+        <v>0.164536638891667</v>
+      </c>
+      <c r="C30">
+        <v>0.187052961434756</v>
+      </c>
+      <c r="D30">
+        <v>0.34956617162012199</v>
+      </c>
+      <c r="E30">
+        <v>0.112035098517669</v>
+      </c>
+      <c r="F30">
+        <v>0.18680912953578599</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31">
+        <v>1.8542615144993502E-2</v>
+      </c>
+      <c r="C31">
+        <v>0.52391196328200895</v>
+      </c>
+      <c r="D31">
+        <v>0.17433455832195599</v>
+      </c>
+      <c r="E31">
+        <v>0.23208910346098899</v>
+      </c>
+      <c r="F31">
+        <v>5.1121759790053699E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32">
+        <v>-1.35885166944181E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.33423545860463799</v>
+      </c>
+      <c r="D32">
+        <v>0.30229387358575699</v>
+      </c>
+      <c r="E32">
+        <v>0.177141950372394</v>
+      </c>
+      <c r="F32">
+        <v>0.172740200742793</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34">
+        <v>0.21507052942173699</v>
+      </c>
+      <c r="C34">
+        <v>0.10611416165529799</v>
+      </c>
+      <c r="D34">
+        <v>0.343991705375361</v>
+      </c>
+      <c r="E34">
+        <v>6.6181382073768502E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.26864222147383598</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35">
+        <v>-2.5657583929937201E-2</v>
+      </c>
+      <c r="C35">
+        <v>0.38077808148565301</v>
+      </c>
+      <c r="D35">
+        <v>0.37486747478323501</v>
+      </c>
+      <c r="E35">
+        <v>0.11305430705351401</v>
+      </c>
+      <c r="F35">
+        <v>0.105642552747661</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36">
+        <v>0.134730944437598</v>
+      </c>
+      <c r="C36">
+        <v>0.431505205204399</v>
+      </c>
+      <c r="D36">
+        <v>0.240556708760258</v>
+      </c>
+      <c r="E36">
+        <v>7.5301360784668203E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.117905780813077</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37">
+        <v>-2.2595749139257E-2</v>
+      </c>
+      <c r="C37">
+        <v>0.333439754980007</v>
+      </c>
+      <c r="D37">
+        <v>0.34228269779706</v>
+      </c>
+      <c r="E37">
+        <v>0.11806305194564599</v>
+      </c>
+      <c r="F37">
+        <v>0.18361874613803</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38">
+        <v>-1.6156443289808801E-2</v>
+      </c>
+      <c r="C38">
+        <v>0.256275266694731</v>
+      </c>
+      <c r="D38">
+        <v>0.40831867561333002</v>
+      </c>
+      <c r="E38">
+        <v>0.141985237237825</v>
+      </c>
+      <c r="F38">
+        <v>0.17726437716430499</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39">
+        <v>9.4853170926785399E-2</v>
+      </c>
+      <c r="C39">
+        <v>0.38603062161521001</v>
+      </c>
+      <c r="D39">
+        <v>0.14813805670056199</v>
+      </c>
+      <c r="E39">
+        <v>0.20137841187901001</v>
+      </c>
+      <c r="F39">
+        <v>0.16959973887843199</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40">
+        <v>4.9221903222926501E-2</v>
+      </c>
+      <c r="C40">
+        <v>0.243380724236817</v>
+      </c>
+      <c r="D40">
+        <v>0.33793809994040003</v>
+      </c>
+      <c r="E40">
+        <v>0.18259988428902901</v>
+      </c>
+      <c r="F40">
+        <v>0.18685938831082899</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42">
+        <v>0.16536944563415901</v>
+      </c>
+      <c r="C42">
+        <v>0.100111956812465</v>
+      </c>
+      <c r="D42">
+        <v>0.41017068237035098</v>
+      </c>
+      <c r="E42">
+        <v>4.7959577085939301E-2</v>
+      </c>
+      <c r="F42">
+        <v>0.27638833809708602</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43">
+        <v>-0.193332427304375</v>
+      </c>
+      <c r="C43">
+        <v>0.22545858792366699</v>
+      </c>
+      <c r="D43">
+        <v>0.49344570387115999</v>
+      </c>
+      <c r="E43">
+        <v>2.2173947172448E-2</v>
+      </c>
+      <c r="F43">
+        <v>6.5589333728351004E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44">
+        <v>-0.15489758843302401</v>
+      </c>
+      <c r="C44">
+        <v>9.7075845316660095E-2</v>
+      </c>
+      <c r="D44">
+        <v>0.48651269370351402</v>
+      </c>
+      <c r="E44">
+        <v>8.8085915247210406E-2</v>
+      </c>
+      <c r="F44">
+        <v>0.17342795729959101</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45">
+        <v>-2.9215352463344401E-2</v>
+      </c>
+      <c r="C45">
+        <v>0.25825734068957801</v>
+      </c>
+      <c r="D45">
+        <v>0.42412610101081</v>
+      </c>
+      <c r="E45">
+        <v>0.10594296936212801</v>
+      </c>
+      <c r="F45">
+        <v>0.18245823647414</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46">
+        <v>0.27360354911333001</v>
+      </c>
+      <c r="C46">
+        <v>0.296742504705161</v>
+      </c>
+      <c r="D46">
+        <v>0.228267837366155</v>
+      </c>
+      <c r="E46">
+        <v>4.55645513050996E-2</v>
+      </c>
+      <c r="F46">
+        <v>0.15582155751025401</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47">
+        <v>-3.5156494092075399E-2</v>
+      </c>
+      <c r="C47">
+        <v>0.27564893373458998</v>
+      </c>
+      <c r="D47">
+        <v>0.21079271057631099</v>
+      </c>
+      <c r="E47">
+        <v>0.25165520029330801</v>
+      </c>
+      <c r="F47">
+        <v>0.22674666130371601</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48">
+        <v>1.8808450166474502E-2</v>
+      </c>
+      <c r="C48">
+        <v>0.243076830633045</v>
+      </c>
+      <c r="D48">
+        <v>0.34500917976129802</v>
+      </c>
+      <c r="E48">
+        <v>0.17799324954662199</v>
+      </c>
+      <c r="F48">
+        <v>0.21511228989256101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51">
+        <f>AVERAGE(B2:B8)</f>
+        <v>-6.3242680188470471E-2</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:F51" si="0">AVERAGE(C2:C8)</f>
+        <v>0.25475007279073453</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0.28770209110589101</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>0.19830480320668914</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0.16097159832252078</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="B52">
+        <f>AVERAGE(B10:B16)</f>
+        <v>-2.3593725802926398E-2</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:F52" si="1">AVERAGE(C10:C16)</f>
+        <v>0.261653893911308</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>0.31824966627277151</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>0.1509316304020232</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>0.16225267609538355</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="B53">
+        <f>AVERAGEA(B18:B24)</f>
+        <v>6.9096928366325097E-2</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:F53" si="2">AVERAGEA(C18:C24)</f>
+        <v>0.31515217850680655</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>0.3163933110718456</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>0.11167191077167715</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>0.16379835261099515</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="B54">
+        <f>AVERAGE(B26:B32)</f>
+        <v>7.299064829128267E-2</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ref="C54:F54" si="3">AVERAGE(C26:C32)</f>
+        <v>0.32885765577910658</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="3"/>
+        <v>0.30025200527288598</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>0.1364356324352291</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="3"/>
+        <v>0.14012878848093943</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="B55">
+        <f>AVERAGE(B34:B40)</f>
+        <v>6.1352395950006279E-2</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ref="C55:F55" si="4">AVERAGE(C34:C40)</f>
+        <v>0.30536054512458788</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="4"/>
+        <v>0.31372763128145803</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="4"/>
+        <v>0.12836623360906582</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="4"/>
+        <v>0.17279040078945282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="B56">
+        <f>AVERAGE(B42:B48)</f>
+        <v>6.4542260887349616E-3</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ref="C56:F56" si="5">AVERAGE(C42:C48)</f>
+        <v>0.21376742854502373</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="5"/>
+        <v>0.37118927266565693</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="5"/>
+        <v>0.10562505857325076</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="5"/>
+        <v>0.18507776775795698</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58">
+        <f>_xlfn.STDEV.S(B2:B8)/SQRT(7)</f>
+        <v>4.319771000110454E-2</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ref="C58:F58" si="6">_xlfn.STDEV.S(C2:C8)/SQRT(7)</f>
+        <v>3.1523795149646539E-2</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="6"/>
+        <v>3.871281616796126E-2</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="6"/>
+        <v>3.0753744311597879E-2</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="6"/>
+        <v>2.2806333033139701E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="B59">
+        <f>_xlfn.STDEV.S(B10:B16)/SQRT(7)</f>
+        <v>5.2820497574985553E-2</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ref="C59:F59" si="7">_xlfn.STDEV.S(C10:C16)/SQRT(7)</f>
+        <v>3.2091293162069025E-2</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="7"/>
+        <v>4.0706398475308443E-2</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="7"/>
+        <v>3.1544240730586579E-2</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="7"/>
+        <v>2.7759457063440005E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="B60">
+        <f>_xlfn.STDEV.S(B18:B24)/SQRT(7)</f>
+        <v>2.1816146076128556E-2</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ref="C60:F60" si="8">_xlfn.STDEV.S(C18:C24)/SQRT(7)</f>
+        <v>5.1415361411036947E-2</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="8"/>
+        <v>3.7169606230472253E-2</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="8"/>
+        <v>3.6696615555498149E-2</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="8"/>
+        <v>4.0282239811308601E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="B61">
+        <f>_xlfn.STDEV.S(B26:B32)/SQRT(7)</f>
+        <v>3.2886338693120597E-2</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ref="C61:F61" si="9">_xlfn.STDEV.S(C26:C32)/SQRT(7)</f>
+        <v>6.2606301339953915E-2</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="9"/>
+        <v>2.9824346292662073E-2</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="9"/>
+        <v>1.9953543955973312E-2</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="9"/>
+        <v>4.1683356723655272E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="B62">
+        <f>_xlfn.STDEV.S(B34:B40)/SQRT(7)</f>
+        <v>3.4815423011239487E-2</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:F62" si="10">_xlfn.STDEV.S(C34:C40)/SQRT(7)</f>
+        <v>4.2214409468901447E-2</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="10"/>
+        <v>3.3727511040289149E-2</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="10"/>
+        <v>1.9198828980414803E-2</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="10"/>
+        <v>2.0150689930291663E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="B63">
+        <f>_xlfn.STDEV.S(B42:B48)/SQRT(7)</f>
+        <v>6.2816497764703161E-2</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ref="C63:F63" si="11">_xlfn.STDEV.S(C42:C48)/SQRT(7)</f>
+        <v>3.0946863961591204E-2</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="11"/>
+        <v>4.348151648125971E-2</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="11"/>
+        <v>3.1154889646776956E-2</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="11"/>
+        <v>2.5000943409631455E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>